--- a/data_year/zb/运输和邮电/沿海规模以上港口分货类吞吐量/货物吞吐量.xlsx
+++ b/data_year/zb/运输和邮电/沿海规模以上港口分货类吞吐量/货物吞吐量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,967 +503,553 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>125603</v>
+        <v>548358</v>
       </c>
       <c r="C2" t="n">
-        <v>32999</v>
+        <v>193890</v>
       </c>
       <c r="D2" t="n">
-        <v>1803</v>
+        <v>1973</v>
       </c>
       <c r="E2" t="n">
-        <v>1047</v>
+        <v>3343</v>
       </c>
       <c r="F2" t="n">
-        <v>983</v>
+        <v>3048</v>
       </c>
       <c r="G2" t="n">
-        <v>32536</v>
+        <v>116258</v>
       </c>
       <c r="H2" t="n">
-        <v>526</v>
+        <v>631</v>
       </c>
       <c r="I2" t="n">
-        <v>23397</v>
+        <v>60786</v>
       </c>
       <c r="J2" t="n">
-        <v>7255</v>
+        <v>33729</v>
       </c>
       <c r="K2" t="n">
-        <v>5616</v>
+        <v>12504</v>
       </c>
       <c r="L2" t="n">
-        <v>11892</v>
+        <v>93143</v>
       </c>
       <c r="M2" t="n">
-        <v>4970</v>
+        <v>21226</v>
       </c>
       <c r="N2" t="n">
-        <v>2579</v>
+        <v>7827</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142634</v>
+        <v>616292</v>
       </c>
       <c r="C3" t="n">
-        <v>39165</v>
+        <v>220140</v>
       </c>
       <c r="D3" t="n">
-        <v>1718</v>
+        <v>2063</v>
       </c>
       <c r="E3" t="n">
-        <v>1064</v>
+        <v>4347</v>
       </c>
       <c r="F3" t="n">
-        <v>1198</v>
+        <v>4521</v>
       </c>
       <c r="G3" t="n">
-        <v>37203</v>
+        <v>136949</v>
       </c>
       <c r="H3" t="n">
-        <v>562</v>
+        <v>708</v>
       </c>
       <c r="I3" t="n">
-        <v>24407</v>
+        <v>63982</v>
       </c>
       <c r="J3" t="n">
-        <v>9657</v>
+        <v>38114</v>
       </c>
       <c r="K3" t="n">
-        <v>5341</v>
+        <v>12176</v>
       </c>
       <c r="L3" t="n">
-        <v>14606</v>
+        <v>101537</v>
       </c>
       <c r="M3" t="n">
-        <v>5152</v>
+        <v>22481</v>
       </c>
       <c r="N3" t="n">
-        <v>2561</v>
+        <v>9272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166628</v>
+        <v>665245</v>
       </c>
       <c r="C4" t="n">
-        <v>49600</v>
+        <v>246431</v>
       </c>
       <c r="D4" t="n">
-        <v>2221</v>
+        <v>2236</v>
       </c>
       <c r="E4" t="n">
-        <v>1152</v>
+        <v>4728</v>
       </c>
       <c r="F4" t="n">
-        <v>1203</v>
+        <v>4571</v>
       </c>
       <c r="G4" t="n">
-        <v>40282</v>
+        <v>138102</v>
       </c>
       <c r="H4" t="n">
-        <v>658</v>
+        <v>734</v>
       </c>
       <c r="I4" t="n">
-        <v>25775</v>
+        <v>63157</v>
       </c>
       <c r="J4" t="n">
-        <v>12570</v>
+        <v>47348</v>
       </c>
       <c r="K4" t="n">
-        <v>5564</v>
+        <v>14309</v>
       </c>
       <c r="L4" t="n">
-        <v>18238</v>
+        <v>111045</v>
       </c>
       <c r="M4" t="n">
-        <v>6205</v>
+        <v>23596</v>
       </c>
       <c r="N4" t="n">
-        <v>3161</v>
+        <v>8988</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201126</v>
+        <v>728098</v>
       </c>
       <c r="C5" t="n">
-        <v>60166</v>
+        <v>268891</v>
       </c>
       <c r="D5" t="n">
-        <v>1995</v>
+        <v>2336</v>
       </c>
       <c r="E5" t="n">
-        <v>1294</v>
+        <v>5111</v>
       </c>
       <c r="F5" t="n">
-        <v>1622</v>
+        <v>5513</v>
       </c>
       <c r="G5" t="n">
-        <v>46872</v>
+        <v>150401</v>
       </c>
       <c r="H5" t="n">
-        <v>686</v>
+        <v>905</v>
       </c>
       <c r="I5" t="n">
-        <v>30438</v>
+        <v>64298</v>
       </c>
       <c r="J5" t="n">
-        <v>14689</v>
+        <v>52935</v>
       </c>
       <c r="K5" t="n">
-        <v>7465</v>
+        <v>15835</v>
       </c>
       <c r="L5" t="n">
-        <v>24285</v>
+        <v>124328</v>
       </c>
       <c r="M5" t="n">
-        <v>8416</v>
+        <v>25848</v>
       </c>
       <c r="N5" t="n">
-        <v>3198</v>
+        <v>11697</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>246074</v>
+        <v>769557</v>
       </c>
       <c r="C6" t="n">
-        <v>75797</v>
+        <v>290285</v>
       </c>
       <c r="D6" t="n">
-        <v>2223</v>
+        <v>3320</v>
       </c>
       <c r="E6" t="n">
-        <v>1365</v>
+        <v>5332</v>
       </c>
       <c r="F6" t="n">
-        <v>2115</v>
+        <v>6877</v>
       </c>
       <c r="G6" t="n">
-        <v>57113</v>
+        <v>148649</v>
       </c>
       <c r="H6" t="n">
-        <v>685</v>
+        <v>933</v>
       </c>
       <c r="I6" t="n">
-        <v>35051</v>
+        <v>67207</v>
       </c>
       <c r="J6" t="n">
-        <v>18529</v>
+        <v>57082</v>
       </c>
       <c r="K6" t="n">
-        <v>7164</v>
+        <v>16510</v>
       </c>
       <c r="L6" t="n">
-        <v>31769</v>
+        <v>133244</v>
       </c>
       <c r="M6" t="n">
-        <v>10928</v>
+        <v>28643</v>
       </c>
       <c r="N6" t="n">
-        <v>3335</v>
+        <v>11475</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>292777</v>
+        <v>784578</v>
       </c>
       <c r="C7" t="n">
-        <v>93469</v>
+        <v>301132</v>
       </c>
       <c r="D7" t="n">
-        <v>2074</v>
+        <v>3510</v>
       </c>
       <c r="E7" t="n">
-        <v>1555</v>
+        <v>4948</v>
       </c>
       <c r="F7" t="n">
-        <v>2230</v>
+        <v>6913</v>
       </c>
       <c r="G7" t="n">
-        <v>63514</v>
+        <v>137870</v>
       </c>
       <c r="H7" t="n">
-        <v>822</v>
+        <v>885</v>
       </c>
       <c r="I7" t="n">
-        <v>37637</v>
+        <v>72942</v>
       </c>
       <c r="J7" t="n">
-        <v>24439</v>
+        <v>61693</v>
       </c>
       <c r="K7" t="n">
-        <v>8590</v>
+        <v>17336</v>
       </c>
       <c r="L7" t="n">
-        <v>41963</v>
+        <v>134412</v>
       </c>
       <c r="M7" t="n">
-        <v>12522</v>
+        <v>29421</v>
       </c>
       <c r="N7" t="n">
-        <v>3962</v>
+        <v>13516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>342191</v>
+        <v>810933</v>
       </c>
       <c r="C8" t="n">
-        <v>117426</v>
+        <v>315222</v>
       </c>
       <c r="D8" t="n">
-        <v>1741</v>
+        <v>2551</v>
       </c>
       <c r="E8" t="n">
-        <v>1603</v>
+        <v>5458</v>
       </c>
       <c r="F8" t="n">
-        <v>2960</v>
+        <v>6886</v>
       </c>
       <c r="G8" t="n">
-        <v>70468</v>
+        <v>138566</v>
       </c>
       <c r="H8" t="n">
-        <v>770</v>
+        <v>857</v>
       </c>
       <c r="I8" t="n">
-        <v>39661</v>
+        <v>79954</v>
       </c>
       <c r="J8" t="n">
-        <v>27597</v>
+        <v>59932</v>
       </c>
       <c r="K8" t="n">
-        <v>8193</v>
+        <v>17190</v>
       </c>
       <c r="L8" t="n">
-        <v>51272</v>
+        <v>140726</v>
       </c>
       <c r="M8" t="n">
-        <v>15497</v>
+        <v>29584</v>
       </c>
       <c r="N8" t="n">
-        <v>5003</v>
+        <v>14007</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>388200</v>
+        <v>865464</v>
       </c>
       <c r="C9" t="n">
-        <v>140620</v>
+        <v>333547</v>
       </c>
       <c r="D9" t="n">
-        <v>2344</v>
+        <v>2374</v>
       </c>
       <c r="E9" t="n">
-        <v>2052</v>
+        <v>5649</v>
       </c>
       <c r="F9" t="n">
-        <v>3362</v>
+        <v>7112</v>
       </c>
       <c r="G9" t="n">
-        <v>81924</v>
+        <v>151640</v>
       </c>
       <c r="H9" t="n">
-        <v>629</v>
+        <v>1179</v>
       </c>
       <c r="I9" t="n">
-        <v>41718</v>
+        <v>85994</v>
       </c>
       <c r="J9" t="n">
-        <v>24028</v>
+        <v>62825</v>
       </c>
       <c r="K9" t="n">
-        <v>8591</v>
+        <v>21393</v>
       </c>
       <c r="L9" t="n">
-        <v>57967</v>
+        <v>145304</v>
       </c>
       <c r="M9" t="n">
-        <v>18626</v>
+        <v>31768</v>
       </c>
       <c r="N9" t="n">
-        <v>6339</v>
+        <v>16679</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>429599</v>
+        <v>922392</v>
       </c>
       <c r="C10" t="n">
-        <v>157217</v>
+        <v>352618</v>
       </c>
       <c r="D10" t="n">
-        <v>1466</v>
+        <v>2544</v>
       </c>
       <c r="E10" t="n">
-        <v>1821</v>
+        <v>6202</v>
       </c>
       <c r="F10" t="n">
-        <v>3245</v>
+        <v>8300</v>
       </c>
       <c r="G10" t="n">
-        <v>88949</v>
+        <v>163896</v>
       </c>
       <c r="H10" t="n">
-        <v>627</v>
+        <v>1162</v>
       </c>
       <c r="I10" t="n">
-        <v>44970</v>
+        <v>91356</v>
       </c>
       <c r="J10" t="n">
-        <v>30228</v>
+        <v>73480</v>
       </c>
       <c r="K10" t="n">
-        <v>9135</v>
+        <v>21138</v>
       </c>
       <c r="L10" t="n">
-        <v>67643</v>
+        <v>149176</v>
       </c>
       <c r="M10" t="n">
-        <v>18265</v>
+        <v>32167</v>
       </c>
       <c r="N10" t="n">
-        <v>6033</v>
+        <v>20353</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>475480.5847</v>
+        <v>918773.7833</v>
       </c>
       <c r="C11" t="n">
-        <v>168163</v>
+        <v>311720.2248</v>
       </c>
       <c r="D11" t="n">
-        <v>1310</v>
+        <v>3242.8239</v>
       </c>
       <c r="E11" t="n">
-        <v>2162</v>
+        <v>6148.7184</v>
       </c>
       <c r="F11" t="n">
-        <v>2620</v>
+        <v>10596.5293</v>
       </c>
       <c r="G11" t="n">
-        <v>94902</v>
+        <v>166170.9372</v>
       </c>
       <c r="H11" t="n">
-        <v>413</v>
+        <v>1150.1362</v>
       </c>
       <c r="I11" t="n">
-        <v>52685</v>
+        <v>106443.8605</v>
       </c>
       <c r="J11" t="n">
-        <v>31245</v>
+        <v>79243.1602</v>
       </c>
       <c r="K11" t="n">
-        <v>10483</v>
+        <v>20035.1079</v>
       </c>
       <c r="L11" t="n">
-        <v>86569</v>
+        <v>154788.4575</v>
       </c>
       <c r="M11" t="n">
-        <v>19081</v>
+        <v>34206.2351</v>
       </c>
       <c r="N11" t="n">
-        <v>5846</v>
+        <v>25027.5923</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>548358</v>
+        <v>948002.1949</v>
       </c>
       <c r="C12" t="n">
-        <v>193890</v>
+        <v>264832.5757</v>
       </c>
       <c r="D12" t="n">
-        <v>1973</v>
+        <v>3276.2846</v>
       </c>
       <c r="E12" t="n">
-        <v>3343</v>
+        <v>6177.7066</v>
       </c>
       <c r="F12" t="n">
-        <v>3048</v>
+        <v>12521.5905</v>
       </c>
       <c r="G12" t="n">
-        <v>116258</v>
+        <v>164637.8025</v>
       </c>
       <c r="H12" t="n">
-        <v>631</v>
+        <v>983.8395</v>
       </c>
       <c r="I12" t="n">
-        <v>60786</v>
+        <v>116955.7289</v>
       </c>
       <c r="J12" t="n">
-        <v>33729</v>
+        <v>84443.1684</v>
       </c>
       <c r="K12" t="n">
-        <v>12504</v>
+        <v>21946.1559</v>
       </c>
       <c r="L12" t="n">
-        <v>93143</v>
+        <v>159213.6954</v>
       </c>
       <c r="M12" t="n">
-        <v>21226</v>
+        <v>37988.704</v>
       </c>
       <c r="N12" t="n">
-        <v>7827</v>
+        <v>27523.7458</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>616292</v>
+        <v>997259.0124</v>
       </c>
       <c r="C13" t="n">
-        <v>220140</v>
+        <v>274066.9071</v>
       </c>
       <c r="D13" t="n">
-        <v>2063</v>
+        <v>3483.5502</v>
       </c>
       <c r="E13" t="n">
-        <v>4347</v>
+        <v>8123.3866</v>
       </c>
       <c r="F13" t="n">
-        <v>4521</v>
+        <v>12149.5096</v>
       </c>
       <c r="G13" t="n">
-        <v>136949</v>
+        <v>183178.1985</v>
       </c>
       <c r="H13" t="n">
-        <v>708</v>
+        <v>1166.7594</v>
       </c>
       <c r="I13" t="n">
-        <v>63982</v>
+        <v>116985.9778</v>
       </c>
       <c r="J13" t="n">
-        <v>38114</v>
+        <v>94825.9653</v>
       </c>
       <c r="K13" t="n">
-        <v>12176</v>
+        <v>24378.875</v>
       </c>
       <c r="L13" t="n">
-        <v>101537</v>
+        <v>160718.1637</v>
       </c>
       <c r="M13" t="n">
-        <v>22481</v>
+        <v>37944.8423</v>
       </c>
       <c r="N13" t="n">
-        <v>9272</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>665245</v>
-      </c>
-      <c r="C14" t="n">
-        <v>246431</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2236</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4728</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4571</v>
-      </c>
-      <c r="G14" t="n">
-        <v>138102</v>
-      </c>
-      <c r="H14" t="n">
-        <v>734</v>
-      </c>
-      <c r="I14" t="n">
-        <v>63157</v>
-      </c>
-      <c r="J14" t="n">
-        <v>47348</v>
-      </c>
-      <c r="K14" t="n">
-        <v>14309</v>
-      </c>
-      <c r="L14" t="n">
-        <v>111045</v>
-      </c>
-      <c r="M14" t="n">
-        <v>23596</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8988</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>728098</v>
-      </c>
-      <c r="C15" t="n">
-        <v>268891</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2336</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5111</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5513</v>
-      </c>
-      <c r="G15" t="n">
-        <v>150401</v>
-      </c>
-      <c r="H15" t="n">
-        <v>905</v>
-      </c>
-      <c r="I15" t="n">
-        <v>64298</v>
-      </c>
-      <c r="J15" t="n">
-        <v>52935</v>
-      </c>
-      <c r="K15" t="n">
-        <v>15835</v>
-      </c>
-      <c r="L15" t="n">
-        <v>124328</v>
-      </c>
-      <c r="M15" t="n">
-        <v>25848</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11697</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>769557</v>
-      </c>
-      <c r="C16" t="n">
-        <v>290285</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3320</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5332</v>
-      </c>
-      <c r="F16" t="n">
-        <v>6877</v>
-      </c>
-      <c r="G16" t="n">
-        <v>148649</v>
-      </c>
-      <c r="H16" t="n">
-        <v>933</v>
-      </c>
-      <c r="I16" t="n">
-        <v>67207</v>
-      </c>
-      <c r="J16" t="n">
-        <v>57082</v>
-      </c>
-      <c r="K16" t="n">
-        <v>16510</v>
-      </c>
-      <c r="L16" t="n">
-        <v>133244</v>
-      </c>
-      <c r="M16" t="n">
-        <v>28643</v>
-      </c>
-      <c r="N16" t="n">
-        <v>11475</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>784578</v>
-      </c>
-      <c r="C17" t="n">
-        <v>301132</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3510</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4948</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6913</v>
-      </c>
-      <c r="G17" t="n">
-        <v>137870</v>
-      </c>
-      <c r="H17" t="n">
-        <v>885</v>
-      </c>
-      <c r="I17" t="n">
-        <v>72942</v>
-      </c>
-      <c r="J17" t="n">
-        <v>61693</v>
-      </c>
-      <c r="K17" t="n">
-        <v>17336</v>
-      </c>
-      <c r="L17" t="n">
-        <v>134412</v>
-      </c>
-      <c r="M17" t="n">
-        <v>29421</v>
-      </c>
-      <c r="N17" t="n">
-        <v>13516</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>810933</v>
-      </c>
-      <c r="C18" t="n">
-        <v>315222</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2551</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5458</v>
-      </c>
-      <c r="F18" t="n">
-        <v>6886</v>
-      </c>
-      <c r="G18" t="n">
-        <v>138566</v>
-      </c>
-      <c r="H18" t="n">
-        <v>857</v>
-      </c>
-      <c r="I18" t="n">
-        <v>79954</v>
-      </c>
-      <c r="J18" t="n">
-        <v>59932</v>
-      </c>
-      <c r="K18" t="n">
-        <v>17190</v>
-      </c>
-      <c r="L18" t="n">
-        <v>140726</v>
-      </c>
-      <c r="M18" t="n">
-        <v>29584</v>
-      </c>
-      <c r="N18" t="n">
-        <v>14007</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>865464</v>
-      </c>
-      <c r="C19" t="n">
-        <v>333547</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2374</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5649</v>
-      </c>
-      <c r="F19" t="n">
-        <v>7112</v>
-      </c>
-      <c r="G19" t="n">
-        <v>151640</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1179</v>
-      </c>
-      <c r="I19" t="n">
-        <v>85994</v>
-      </c>
-      <c r="J19" t="n">
-        <v>62825</v>
-      </c>
-      <c r="K19" t="n">
-        <v>21393</v>
-      </c>
-      <c r="L19" t="n">
-        <v>145304</v>
-      </c>
-      <c r="M19" t="n">
-        <v>31768</v>
-      </c>
-      <c r="N19" t="n">
-        <v>16679</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>922392</v>
-      </c>
-      <c r="C20" t="n">
-        <v>352618</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2544</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6202</v>
-      </c>
-      <c r="F20" t="n">
-        <v>8300</v>
-      </c>
-      <c r="G20" t="n">
-        <v>163896</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1162</v>
-      </c>
-      <c r="I20" t="n">
-        <v>91356</v>
-      </c>
-      <c r="J20" t="n">
-        <v>73480</v>
-      </c>
-      <c r="K20" t="n">
-        <v>21138</v>
-      </c>
-      <c r="L20" t="n">
-        <v>149176</v>
-      </c>
-      <c r="M20" t="n">
-        <v>32167</v>
-      </c>
-      <c r="N20" t="n">
-        <v>20353</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>918773.7833</v>
-      </c>
-      <c r="C21" t="n">
-        <v>311720.2248</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3242.8239</v>
-      </c>
-      <c r="E21" t="n">
-        <v>6148.7184</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10596.5293</v>
-      </c>
-      <c r="G21" t="n">
-        <v>166170.9372</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1150.1362</v>
-      </c>
-      <c r="I21" t="n">
-        <v>106443.8605</v>
-      </c>
-      <c r="J21" t="n">
-        <v>79243.1602</v>
-      </c>
-      <c r="K21" t="n">
-        <v>20035.1079</v>
-      </c>
-      <c r="L21" t="n">
-        <v>154788.4575</v>
-      </c>
-      <c r="M21" t="n">
-        <v>34206.2351</v>
-      </c>
-      <c r="N21" t="n">
-        <v>25027.5923</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>948002.1949</v>
-      </c>
-      <c r="C22" t="n">
-        <v>264832.5757</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3276.2846</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6177.7066</v>
-      </c>
-      <c r="F22" t="n">
-        <v>12521.5905</v>
-      </c>
-      <c r="G22" t="n">
-        <v>164637.8025</v>
-      </c>
-      <c r="H22" t="n">
-        <v>983.8395</v>
-      </c>
-      <c r="I22" t="n">
-        <v>116955.7289</v>
-      </c>
-      <c r="J22" t="n">
-        <v>84443.1684</v>
-      </c>
-      <c r="K22" t="n">
-        <v>21946.1559</v>
-      </c>
-      <c r="L22" t="n">
-        <v>159213.6954</v>
-      </c>
-      <c r="M22" t="n">
-        <v>37988.704</v>
-      </c>
-      <c r="N22" t="n">
-        <v>27523.7458</v>
+        <v>26146.311</v>
       </c>
     </row>
   </sheetData>
